--- a/public/batch_record_template_voucher.xlsx
+++ b/public/batch_record_template_voucher.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrence/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E4A831-23A7-8242-B5A2-204DD0062914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409B094B-4ACF-7548-8C1B-B3AB8832BB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="38400" windowHeight="19740" xr2:uid="{F532AAA1-3791-1543-91C2-E0C6ACA55344}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>FirstName</t>
   </si>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>0975123456</t>
+  </si>
+  <si>
+    <t>Narration</t>
+  </si>
+  <si>
+    <t>Here we go</t>
+  </si>
+  <si>
+    <t>Here also</t>
+  </si>
+  <si>
+    <t>Finally here</t>
   </si>
 </sst>
 </file>
@@ -933,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703E5390-1974-9641-A579-4DA0C0039EB5}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -946,7 +958,7 @@
     <col min="6" max="6" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -965,8 +977,11 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -985,8 +1000,11 @@
       <c r="F2" s="3">
         <v>10.119999999999999</v>
       </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1005,8 +1023,11 @@
       <c r="F3" s="3">
         <v>100</v>
       </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1024,6 +1045,9 @@
       </c>
       <c r="F4" s="3">
         <v>50.54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
